--- a/output/2.1.xlsx
+++ b/output/2.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>ρ (g/cm3)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tension</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overburden</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -477,6 +487,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -501,6 +517,12 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,6 +545,12 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,6 +573,12 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -565,6 +599,12 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -585,6 +625,12 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -605,6 +651,12 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -625,6 +677,12 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -645,6 +703,12 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -665,6 +729,12 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -685,6 +755,12 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -705,6 +781,12 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -725,6 +807,12 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -745,6 +833,12 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -765,6 +859,12 @@
       <c r="F16" t="n">
         <v>2.157459246767847</v>
       </c>
+      <c r="G16" t="n">
+        <v>306.7907048903879</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5834137831505981</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -785,6 +885,12 @@
       <c r="F17" t="n">
         <v>2.167914558740866</v>
       </c>
+      <c r="G17" t="n">
+        <v>615.068155143339</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.13294253015566</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -805,6 +911,12 @@
       <c r="F18" t="n">
         <v>2.241101742551995</v>
       </c>
+      <c r="G18" t="n">
+        <v>933.7528229342328</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.667611103969024</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -825,6 +937,12 @@
       <c r="F19" t="n">
         <v>2.299673974142777</v>
       </c>
+      <c r="G19" t="n">
+        <v>1260.766462057336</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.185134144699203</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -845,6 +963,12 @@
       <c r="F20" t="n">
         <v>2.324744238336144</v>
       </c>
+      <c r="G20" t="n">
+        <v>1591.345092748735</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.678967198015292</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -865,6 +989,12 @@
       <c r="F21" t="n">
         <v>2.282698145025295</v>
       </c>
+      <c r="G21" t="n">
+        <v>1915.944768971332</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.135473321150019</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -885,6 +1015,12 @@
       <c r="F22" t="n">
         <v>2.368026981450253</v>
       </c>
+      <c r="G22" t="n">
+        <v>2252.678205733558</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.586528085162927</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -905,6 +1041,12 @@
       <c r="F23" t="n">
         <v>2.329241146711635</v>
       </c>
+      <c r="G23" t="n">
+        <v>2583.896296795952</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.005206197028018</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -925,6 +1067,12 @@
       <c r="F24" t="n">
         <v>2.441888701517707</v>
       </c>
+      <c r="G24" t="n">
+        <v>2931.13287015177</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.42652701486462</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -945,6 +1093,12 @@
       <c r="F25" t="n">
         <v>2.446385609893198</v>
       </c>
+      <c r="G25" t="n">
+        <v>3279.008903878583</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.827649272274827</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -965,6 +1119,12 @@
       <c r="F26" t="n">
         <v>2.487757166947723</v>
       </c>
+      <c r="G26" t="n">
+        <v>3632.76797301855</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.217587096065102</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -985,6 +1145,12 @@
       <c r="F27" t="n">
         <v>2.56982574480045</v>
       </c>
+      <c r="G27" t="n">
+        <v>3998.197193929173</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.605255268973335</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1005,6 +1171,12 @@
       <c r="F28" t="n">
         <v>2.610410342889264</v>
       </c>
+      <c r="G28" t="n">
+        <v>4369.397544688027</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.982735504021209</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1025,6 +1197,12 @@
       <c r="F29" t="n">
         <v>2.509342327150084</v>
       </c>
+      <c r="G29" t="n">
+        <v>4726.226023608769</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.323772962532257</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1045,6 +1223,12 @@
       <c r="F30" t="n">
         <v>2.553974142776841</v>
       </c>
+      <c r="G30" t="n">
+        <v>5089.401146711635</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.657908520184386</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1065,6 +1249,12 @@
       <c r="F31" t="n">
         <v>2.454367622259696</v>
       </c>
+      <c r="G31" t="n">
+        <v>5438.412222596964</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.959346857087201</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1085,6 +1275,12 @@
       <c r="F32" t="n">
         <v>2.516874648679033</v>
       </c>
+      <c r="G32" t="n">
+        <v>5796.311797639122</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.259051281560801</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1105,6 +1301,12 @@
       <c r="F33" t="n">
         <v>2.543293985385048</v>
       </c>
+      <c r="G33" t="n">
+        <v>6157.968202360876</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.550838079130537</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1125,6 +1327,12 @@
       <c r="F34" t="n">
         <v>2.573760539629005</v>
       </c>
+      <c r="G34" t="n">
+        <v>6523.95695109612</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7.835884638173021</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1145,6 +1353,12 @@
       <c r="F35" t="n">
         <v>2.499673974142777</v>
       </c>
+      <c r="G35" t="n">
+        <v>6879.410590219223</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.09709744822972</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1165,6 +1379,12 @@
       <c r="F36" t="n">
         <v>2.513839235525576</v>
       </c>
+      <c r="G36" t="n">
+        <v>7236.87852951096</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.350362646876263</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1185,6 +1405,12 @@
       <c r="F37" t="n">
         <v>2.576683530073074</v>
       </c>
+      <c r="G37" t="n">
+        <v>7603.282927487351</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.60397319196246</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1205,6 +1431,12 @@
       <c r="F38" t="n">
         <v>2.729971894322653</v>
       </c>
+      <c r="G38" t="n">
+        <v>7991.484930860032</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.872187995551222</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1225,6 +1457,12 @@
       <c r="F39" t="n">
         <v>2.594109050028106</v>
       </c>
+      <c r="G39" t="n">
+        <v>8360.367237774029</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.109392501876311</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1244,6 +1482,12 @@
       </c>
       <c r="F40" t="n">
         <v>2.531939291736931</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8720.40900505902</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.328492377801433</v>
       </c>
     </row>
   </sheetData>

--- a/output/2.1.xlsx
+++ b/output/2.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tension</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Overburden</t>
         </is>
       </c>
@@ -487,13 +482,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="3">
@@ -515,13 +507,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>10.80924916802044</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +532,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.735986509274873</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+        <v>11.00424813432211</v>
       </c>
     </row>
     <row r="5">
@@ -571,13 +557,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.706531759415402</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>11.1672330072472</v>
       </c>
     </row>
     <row r="6">
@@ -597,13 +580,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.771174817313097</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+        <v>11.34045187464181</v>
       </c>
     </row>
     <row r="7">
@@ -623,13 +603,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.649983136593592</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
+        <v>11.45155771161469</v>
       </c>
     </row>
     <row r="8">
@@ -649,13 +626,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.86212478920742</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
+        <v>11.63038556768949</v>
       </c>
     </row>
     <row r="9">
@@ -675,13 +649,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.822102304665542</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+        <v>11.78022573876275</v>
       </c>
     </row>
     <row r="10">
@@ -701,13 +672,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.853468240584598</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>11.92854018988295</v>
       </c>
     </row>
     <row r="11">
@@ -727,13 +695,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.934075323215289</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>12.09139612897174</v>
       </c>
     </row>
     <row r="12">
@@ -753,13 +718,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.982079820123665</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
+        <v>12.25704019274859</v>
       </c>
     </row>
     <row r="13">
@@ -779,13 +741,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.052344013490725</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>12.43183973083546</v>
       </c>
     </row>
     <row r="14">
@@ -805,13 +764,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.024575604272063</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+        <v>12.58649621948971</v>
       </c>
     </row>
     <row r="15">
@@ -831,13 +787,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.047847105115233</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
+        <v>12.73729769595595</v>
       </c>
     </row>
     <row r="16">
@@ -860,10 +813,7 @@
         <v>2.157459246767847</v>
       </c>
       <c r="G16" t="n">
-        <v>306.7907048903879</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5834137831505981</v>
+        <v>12.90796690049488</v>
       </c>
     </row>
     <row r="17">
@@ -886,10 +836,7 @@
         <v>2.167914558740866</v>
       </c>
       <c r="G17" t="n">
-        <v>615.068155143339</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.13294253015566</v>
+        <v>13.07066096082874</v>
       </c>
     </row>
     <row r="18">
@@ -912,10 +859,7 @@
         <v>2.241101742551995</v>
       </c>
       <c r="G18" t="n">
-        <v>933.7528229342328</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.667611103969024</v>
+        <v>13.24203925981943</v>
       </c>
     </row>
     <row r="19">
@@ -938,10 +882,7 @@
         <v>2.299673974142777</v>
       </c>
       <c r="G19" t="n">
-        <v>1260.766462057336</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.185134144699203</v>
+        <v>13.4177303999043</v>
       </c>
     </row>
     <row r="20">
@@ -964,10 +905,7 @@
         <v>2.324744238336144</v>
       </c>
       <c r="G20" t="n">
-        <v>1591.345092748735</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.678967198015292</v>
+        <v>13.58934325083355</v>
       </c>
     </row>
     <row r="21">
@@ -990,10 +928,7 @@
         <v>2.282698145025295</v>
       </c>
       <c r="G21" t="n">
-        <v>1915.944768971332</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.135473321150019</v>
+        <v>13.74160018119588</v>
       </c>
     </row>
     <row r="22">
@@ -1016,10 +951,7 @@
         <v>2.368026981450253</v>
       </c>
       <c r="G22" t="n">
-        <v>2252.678205733558</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.586528085162927</v>
+        <v>13.90491411883749</v>
       </c>
     </row>
     <row r="23">
@@ -1042,10 +974,7 @@
         <v>2.329241146711635</v>
       </c>
       <c r="G23" t="n">
-        <v>2583.896296795952</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.005206197028018</v>
+        <v>14.05105165929015</v>
       </c>
     </row>
     <row r="24">
@@ -1068,10 +997,7 @@
         <v>2.441888701517707</v>
       </c>
       <c r="G24" t="n">
-        <v>2931.13287015177</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.42652701486462</v>
+        <v>14.21385869786113</v>
       </c>
     </row>
     <row r="25">
@@ -1094,10 +1020,7 @@
         <v>2.446385609893198</v>
       </c>
       <c r="G25" t="n">
-        <v>3279.008903878583</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4.827649272274827</v>
+        <v>14.36943826377619</v>
       </c>
     </row>
     <row r="26">
@@ -1120,10 +1043,7 @@
         <v>2.487757166947723</v>
       </c>
       <c r="G26" t="n">
-        <v>3632.76797301855</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5.217587096065102</v>
+        <v>14.52585212791151</v>
       </c>
     </row>
     <row r="27">
@@ -1146,10 +1066,7 @@
         <v>2.56982574480045</v>
       </c>
       <c r="G27" t="n">
-        <v>3998.197193929173</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5.605255268973335</v>
+        <v>14.69115372098586</v>
       </c>
     </row>
     <row r="28">
@@ -1172,10 +1089,7 @@
         <v>2.610410342889264</v>
       </c>
       <c r="G28" t="n">
-        <v>4369.397544688027</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5.982735504021209</v>
+        <v>14.85664379149775</v>
       </c>
     </row>
     <row r="29">
@@ -1198,10 +1112,7 @@
         <v>2.509342327150084</v>
       </c>
       <c r="G29" t="n">
-        <v>4726.226023608769</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6.323772962532257</v>
+        <v>14.99535775964225</v>
       </c>
     </row>
     <row r="30">
@@ -1224,10 +1135,7 @@
         <v>2.553974142776841</v>
       </c>
       <c r="G30" t="n">
-        <v>5089.401146711635</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6.657908520184386</v>
+        <v>15.13619004495577</v>
       </c>
     </row>
     <row r="31">
@@ -1250,10 +1158,7 @@
         <v>2.454367622259696</v>
       </c>
       <c r="G31" t="n">
-        <v>5438.412222596964</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6.959346857087201</v>
+        <v>15.252755256591</v>
       </c>
     </row>
     <row r="32">
@@ -1276,10 +1181,7 @@
         <v>2.516874648679033</v>
       </c>
       <c r="G32" t="n">
-        <v>5796.311797639122</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7.259051281560801</v>
+        <v>15.37547700075082</v>
       </c>
     </row>
     <row r="33">
@@ -1302,10 +1204,7 @@
         <v>2.543293985385048</v>
       </c>
       <c r="G33" t="n">
-        <v>6157.968202360876</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7.550838079130537</v>
+        <v>15.49767696758111</v>
       </c>
     </row>
     <row r="34">
@@ -1328,10 +1227,7 @@
         <v>2.573760539629005</v>
       </c>
       <c r="G34" t="n">
-        <v>6523.95695109612</v>
-      </c>
-      <c r="H34" t="n">
-        <v>7.835884638173021</v>
+        <v>15.62007844090009</v>
       </c>
     </row>
     <row r="35">
@@ -1354,10 +1250,7 @@
         <v>2.499673974142777</v>
       </c>
       <c r="G35" t="n">
-        <v>6879.410590219223</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8.09709744822972</v>
+        <v>15.72517023606053</v>
       </c>
     </row>
     <row r="36">
@@ -1380,10 +1273,7 @@
         <v>2.513839235525576</v>
       </c>
       <c r="G36" t="n">
-        <v>7236.87852951096</v>
-      </c>
-      <c r="H36" t="n">
-        <v>8.350362646876263</v>
+        <v>15.82845366538284</v>
       </c>
     </row>
     <row r="37">
@@ -1406,10 +1296,7 @@
         <v>2.576683530073074</v>
       </c>
       <c r="G37" t="n">
-        <v>7603.282927487351</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8.60397319196246</v>
+        <v>15.93786654331696</v>
       </c>
     </row>
     <row r="38">
@@ -1432,10 +1319,7 @@
         <v>2.729971894322653</v>
       </c>
       <c r="G38" t="n">
-        <v>7991.484930860032</v>
-      </c>
-      <c r="H38" t="n">
-        <v>8.872187995551222</v>
+        <v>16.06733951279005</v>
       </c>
     </row>
     <row r="39">
@@ -1458,10 +1342,7 @@
         <v>2.594109050028106</v>
       </c>
       <c r="G39" t="n">
-        <v>8360.367237774029</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9.109392501876311</v>
+        <v>16.17095412833833</v>
       </c>
     </row>
     <row r="40">
@@ -1484,10 +1365,7 @@
         <v>2.531939291736931</v>
       </c>
       <c r="G40" t="n">
-        <v>8720.40900505902</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9.328492377801433</v>
+        <v>16.26133432459772</v>
       </c>
     </row>
   </sheetData>
